--- a/configurations_bs.xlsx
+++ b/configurations_bs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebrambatti\Documents\GitHub\rewardshaping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4F7AFE-4774-4A02-8F0C-16E700497B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3C5213-7A93-48DC-A406-E31D585CDB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD8557D7-6381-4966-9350-BC63F5829D76}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -533,18 +533,43 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.3</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17">
       <c r="B4" s="1"/>
